--- a/public/file_importExcel/template.xlsx
+++ b/public/file_importExcel/template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>NAMA</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>nana@gmail9.com</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>android</t>
   </si>
 </sst>
 </file>
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,13 +525,13 @@
     <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -551,13 +563,16 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -588,14 +603,17 @@
       <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2">
         <v>2018</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>43494</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -626,14 +644,17 @@
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3">
         <v>2018</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>43495</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -664,14 +685,17 @@
       <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4">
         <v>2018</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -702,14 +726,17 @@
       <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5">
         <v>2018</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>43497</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -740,14 +767,17 @@
       <c r="J6" t="s">
         <v>15</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6">
         <v>2018</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>43498</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -778,14 +808,17 @@
       <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7">
         <v>2018</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43499</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -816,14 +849,17 @@
       <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8">
         <v>2018</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>43500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -854,14 +890,17 @@
       <c r="J9" t="s">
         <v>15</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9">
         <v>2018</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>43501</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -892,10 +931,13 @@
       <c r="J10" t="s">
         <v>15</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10">
         <v>2018</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>43502</v>
       </c>
     </row>
